--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80956.7168446804</v>
+        <v>94683.07498209852</v>
       </c>
     </row>
     <row r="7">
@@ -26347,10 +26349,10 @@
         <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989087</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989086</v>
+        <v>91456.43851989087</v>
       </c>
       <c r="P2" t="n">
         <v>91456.43851989086</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>75255.18387201248</v>
       </c>
       <c r="E4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="F4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="G4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="H4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="I4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="J4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="K4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="L4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="M4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="N4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="O4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="P4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
     </row>
     <row r="5">
@@ -26528,40 +26530,40 @@
         <v>-22876.85944685537</v>
       </c>
       <c r="E6" t="n">
-        <v>-89851.78158763728</v>
+        <v>-89851.78158763735</v>
       </c>
       <c r="F6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="G6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="H6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="I6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="J6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="K6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="L6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="M6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
       <c r="N6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.21841236272</v>
       </c>
       <c r="O6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.21841236272</v>
       </c>
       <c r="P6" t="n">
-        <v>43248.21841236271</v>
+        <v>43248.2184123627</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94683.07498209852</v>
+        <v>-30426.82381537814</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989086</v>
@@ -26349,10 +26349,10 @@
         <v>91456.43851989086</v>
       </c>
       <c r="N2" t="n">
-        <v>91456.43851989087</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="O2" t="n">
-        <v>91456.43851989087</v>
+        <v>91456.43851989086</v>
       </c>
       <c r="P2" t="n">
         <v>91456.43851989086</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.5334168901</v>
       </c>
       <c r="E6" t="n">
-        <v>-89851.78158763735</v>
+        <v>-104661.7984267513</v>
       </c>
       <c r="F6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="G6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="H6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="I6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="J6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="K6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="L6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="M6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="N6" t="n">
-        <v>43248.21841236272</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="O6" t="n">
-        <v>43248.21841236272</v>
+        <v>28438.2015732488</v>
       </c>
       <c r="P6" t="n">
-        <v>43248.2184123627</v>
+        <v>28438.2015732488</v>
       </c>
     </row>
   </sheetData>
